--- a/data/edited_data/employment_rate_by_gender_2023.xlsx
+++ b/data/edited_data/employment_rate_by_gender_2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\01_Ironhack\projects\female-labour\data\edited_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/maternal-employment/data/edited_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A36B023-C44C-4B3D-92D6-B6C876C6AB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{9A36B023-C44C-4B3D-92D6-B6C876C6AB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2689E001-1B9A-49F0-90AE-E4FFBA62B113}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,13 +146,13 @@
     <t>country</t>
   </si>
   <si>
-    <t>emp_rate_women</t>
-  </si>
-  <si>
-    <t>empl_rate_men</t>
-  </si>
-  <si>
     <t>EU-27</t>
+  </si>
+  <si>
+    <t>emp_women</t>
+  </si>
+  <si>
+    <t>emp_men</t>
   </si>
 </sst>
 </file>
@@ -163,7 +163,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.##########"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -181,6 +181,12 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -228,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -250,6 +256,9 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,10 +597,10 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -605,16 +614,16 @@
       <c r="A1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="8" t="s">
         <v>38</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4">
         <v>65.7</v>
